--- a/Forms/item-form.xlsx
+++ b/Forms/item-form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\e-mis\src\e-mis\Ecoba.Web.Api\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC07E5D1-FC38-41AC-9F17-242D00936036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4CA87F-B545-4190-853E-5A34A3709B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Bắt buộc</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Đơn vị</t>
-  </si>
-  <si>
-    <t>Số lượng</t>
   </si>
   <si>
     <t>Khối lượng</t>
@@ -571,7 +568,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -589,7 +586,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
@@ -681,16 +678,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>0</v>
@@ -5407,12 +5404,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008E3A2BDB0A510D4D9FCECF3617DF26F7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="24c8da618c93c290966d4724c4a13839">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="233af1b8-3318-4c33-b3c1-64ef0d4722c0" xmlns:ns4="2d1c98be-e375-4837-84b3-0051639a5448" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45cf452450b7d02069a2f27cdbfde88" ns3:_="" ns4:_="">
     <xsd:import namespace="233af1b8-3318-4c33-b3c1-64ef0d4722c0"/>
@@ -5621,6 +5612,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5631,23 +5628,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4A540C5-6C33-4F70-A9D3-448C9355844F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2d1c98be-e375-4837-84b3-0051639a5448"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="233af1b8-3318-4c33-b3c1-64ef0d4722c0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D9A1B21-0222-41DD-A194-655E086F0399}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5666,6 +5646,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4A540C5-6C33-4F70-A9D3-448C9355844F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2d1c98be-e375-4837-84b3-0051639a5448"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="233af1b8-3318-4c33-b3c1-64ef0d4722c0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C89AACB-3BED-4E44-AEF6-66397EF58F2D}">
   <ds:schemaRefs>

--- a/Forms/item-form.xlsx
+++ b/Forms/item-form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\e-mis\src\e-mis\Ecoba.Web.Api\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4CA87F-B545-4190-853E-5A34A3709B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051969F2-2D01-49CE-95A0-A9DF7699D3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Bắt buộc</t>
   </si>
@@ -68,6 +68,9 @@
   <si>
     <t>Tùy chọn</t>
   </si>
+  <si>
+    <t>Mã BOQ</t>
+  </si>
 </sst>
 </file>
 
@@ -77,7 +80,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -177,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -200,13 +203,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -279,7 +302,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -564,37 +590,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V4372"/>
+  <dimension ref="A1:W4372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.796875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="20" customWidth="1"/>
     <col min="3" max="3" width="39" style="20" customWidth="1"/>
-    <col min="4" max="4" width="17.59765625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="20" customWidth="1"/>
     <col min="5" max="5" width="39" style="20" customWidth="1"/>
-    <col min="6" max="6" width="7.796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.19921875" style="24" customWidth="1"/>
-    <col min="8" max="22" width="9.19921875" style="16"/>
-    <col min="23" max="16384" width="9.19921875" style="17"/>
+    <col min="6" max="6" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="19.21875" style="24" customWidth="1"/>
+    <col min="9" max="23" width="9.21875" style="16"/>
+    <col min="24" max="16384" width="9.21875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:22" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -616,7 +643,9 @@
       <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -631,8 +660,9 @@
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
     </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
@@ -654,7 +684,9 @@
       <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -669,8 +701,9 @@
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
     </row>
-    <row r="4" spans="1:22" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
@@ -692,7 +725,9 @@
       <c r="G4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -707,8 +742,9 @@
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
     </row>
-    <row r="5" spans="1:22" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
@@ -718,7 +754,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="7"/>
+      <c r="H5" s="14"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -733,8 +769,9 @@
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
     </row>
-    <row r="6" spans="1:22" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
@@ -742,7 +779,7 @@
       <c r="E6" s="19"/>
       <c r="F6" s="21"/>
       <c r="G6" s="22"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -757,8 +794,9 @@
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
     </row>
-    <row r="7" spans="1:22" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
@@ -766,7 +804,7 @@
       <c r="E7" s="19"/>
       <c r="F7" s="21"/>
       <c r="G7" s="22"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -781,8 +819,9 @@
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
     </row>
-    <row r="8" spans="1:22" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -790,7 +829,7 @@
       <c r="E8" s="19"/>
       <c r="F8" s="21"/>
       <c r="G8" s="22"/>
-      <c r="H8" s="9"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -805,8 +844,9 @@
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
     </row>
-    <row r="9" spans="1:22" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -814,7 +854,7 @@
       <c r="E9" s="19"/>
       <c r="F9" s="21"/>
       <c r="G9" s="22"/>
-      <c r="H9" s="9"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -829,8 +869,9 @@
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
     </row>
-    <row r="10" spans="1:22" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -838,7 +879,7 @@
       <c r="E10" s="19"/>
       <c r="F10" s="21"/>
       <c r="G10" s="22"/>
-      <c r="H10" s="9"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -853,8 +894,9 @@
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
     </row>
-    <row r="11" spans="1:22" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -862,7 +904,7 @@
       <c r="E11" s="19"/>
       <c r="F11" s="21"/>
       <c r="G11" s="22"/>
-      <c r="H11" s="9"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -877,8 +919,9 @@
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
     </row>
-    <row r="12" spans="1:22" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -886,7 +929,7 @@
       <c r="E12" s="19"/>
       <c r="F12" s="21"/>
       <c r="G12" s="22"/>
-      <c r="H12" s="9"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -901,8 +944,9 @@
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
     </row>
-    <row r="13" spans="1:22" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -910,7 +954,7 @@
       <c r="E13" s="19"/>
       <c r="F13" s="21"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -925,8 +969,9 @@
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
     </row>
-    <row r="14" spans="1:22" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -934,7 +979,7 @@
       <c r="E14" s="19"/>
       <c r="F14" s="21"/>
       <c r="G14" s="22"/>
-      <c r="H14" s="9"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -949,8 +994,9 @@
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
     </row>
-    <row r="15" spans="1:22" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -958,7 +1004,7 @@
       <c r="E15" s="19"/>
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
-      <c r="H15" s="9"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -973,8 +1019,9 @@
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
     </row>
-    <row r="16" spans="1:22" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -982,7 +1029,7 @@
       <c r="E16" s="19"/>
       <c r="F16" s="21"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="9"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -997,79 +1044,100 @@
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
     </row>
-    <row r="17" spans="7:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
     </row>
-    <row r="18" spans="7:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
     </row>
-    <row r="19" spans="7:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
     </row>
-    <row r="20" spans="7:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
     </row>
-    <row r="21" spans="7:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
     </row>
-    <row r="22" spans="7:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
     </row>
-    <row r="23" spans="7:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
     </row>
-    <row r="24" spans="7:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
     </row>
-    <row r="25" spans="7:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
     </row>
-    <row r="26" spans="7:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
     </row>
-    <row r="27" spans="7:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
     </row>
-    <row r="28" spans="7:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
     </row>
-    <row r="29" spans="7:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
     </row>
-    <row r="30" spans="7:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
     </row>
-    <row r="31" spans="7:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="7:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
     </row>
-    <row r="32" spans="7:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="7:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
     </row>
-    <row r="33" spans="7:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
     </row>
-    <row r="34" spans="7:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
     </row>
-    <row r="35" spans="7:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
     </row>
-    <row r="36" spans="7:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
     </row>
-    <row r="37" spans="7:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="7:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="7:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="7:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="7:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="7:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="7:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="7:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="7:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="7:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="7:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="7:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="7:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="7:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="7:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="7:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="7:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="7:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="7:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="7:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="7:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="7:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="7:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="7:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5396,7 +5464,7 @@
     <row r="4372" ht="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5404,6 +5472,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008E3A2BDB0A510D4D9FCECF3617DF26F7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="24c8da618c93c290966d4724c4a13839">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="233af1b8-3318-4c33-b3c1-64ef0d4722c0" xmlns:ns4="2d1c98be-e375-4837-84b3-0051639a5448" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45cf452450b7d02069a2f27cdbfde88" ns3:_="" ns4:_="">
     <xsd:import namespace="233af1b8-3318-4c33-b3c1-64ef0d4722c0"/>
@@ -5612,36 +5695,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D9A1B21-0222-41DD-A194-655E086F0399}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C89AACB-3BED-4E44-AEF6-66397EF58F2D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="233af1b8-3318-4c33-b3c1-64ef0d4722c0"/>
-    <ds:schemaRef ds:uri="2d1c98be-e375-4837-84b3-0051639a5448"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5664,9 +5721,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C89AACB-3BED-4E44-AEF6-66397EF58F2D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D9A1B21-0222-41DD-A194-655E086F0399}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="233af1b8-3318-4c33-b3c1-64ef0d4722c0"/>
+    <ds:schemaRef ds:uri="2d1c98be-e375-4837-84b3-0051639a5448"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>